--- a/csdata/O/SI/O5+.xlsx
+++ b/csdata/O/SI/O5+.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/O/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E89A8-0175-B048-83B7-EE0F158490AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34998B4-1B4C-364F-8FAD-ACDEEAD8206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="780" windowWidth="15140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="780" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/csdata/O/SI/O5+.xlsx
+++ b/csdata/O/SI/O5+.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/O/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34998B4-1B4C-364F-8FAD-ACDEEAD8206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81C854-52C4-3848-B1BA-17EE5A6D2F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="780" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="1380" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -38,6 +51,9 @@
   </si>
   <si>
     <t>Electron-impact ionization of B2+ and 05+: Excitation-autoionization in Li-Like ions</t>
+  </si>
+  <si>
+    <t>Unc at peak</t>
   </si>
 </sst>
 </file>
@@ -334,12 +350,12 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,8 +371,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>97</v>
       </c>
@@ -364,7 +385,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="7">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8008400817396308E-2</v>
       </c>
       <c r="D2" s="5">
         <v>-18</v>
@@ -372,8 +393,12 @@
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.11062897842349749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>137</v>
       </c>
@@ -381,12 +406,12 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="7">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8008400817396308E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>147</v>
       </c>
@@ -394,12 +419,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9665360408596635E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>157</v>
       </c>
@@ -407,11 +432,11 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="C5" s="7">
-        <v>4.9000000000000002E-2</v>
+        <v>5.3848202384109353E-2</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>167</v>
       </c>
@@ -419,11 +444,11 @@
         <v>0.255</v>
       </c>
       <c r="C6" s="7">
-        <v>2.7E-2</v>
+        <v>3.8933308361864136E-2</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>177</v>
       </c>
@@ -431,11 +456,11 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="C7" s="7">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7783243925041338E-2</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>196</v>
       </c>
@@ -443,11 +468,11 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>1.7999999999999999E-2</v>
+        <v>5.0198203155093109E-2</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>216</v>
       </c>
@@ -455,10 +480,11 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="C9" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.6760917459244076E-2</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>236</v>
       </c>
@@ -466,10 +492,11 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.2371621510091924E-2</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>256</v>
       </c>
@@ -477,10 +504,11 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="C11" s="7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.4944540161375334E-2</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>276</v>
       </c>
@@ -488,10 +516,11 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="C12" s="7">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.9814845736867784E-2</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>295</v>
       </c>
@@ -499,10 +528,11 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="C13" s="7">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.7386061406431575E-2</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>344</v>
       </c>
@@ -510,10 +540,11 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="C14" s="7">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.6463210107868218E-2</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>394</v>
       </c>
@@ -521,10 +552,11 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="C15" s="7">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.9669723860447766E-2</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>443</v>
       </c>
@@ -532,8 +564,9 @@
         <v>0.752</v>
       </c>
       <c r="C16" s="7">
-        <v>1.2E-2</v>
-      </c>
+        <v>8.358587440471027E-2</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
@@ -543,8 +576,9 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="C17" s="7">
-        <v>8.0000000000000002E-3</v>
-      </c>
+        <v>8.1901648945549313E-2</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
@@ -554,8 +588,9 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="C18" s="7">
-        <v>8.9999999999999993E-3</v>
-      </c>
+        <v>8.0037621778761017E-2</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
@@ -565,9 +600,9 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="C19" s="7">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>7.9600427762669707E-2</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -578,11 +613,10 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="C20" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3543914200856065E-2</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="2"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -593,11 +627,10 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="C21" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>8.3872403685598507E-2</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -608,11 +641,10 @@
         <v>0.76400000000000001</v>
       </c>
       <c r="C22" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>8.4520539515552079E-2</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="2"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -623,11 +655,10 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="C23" s="7">
-        <v>1.6E-2</v>
+        <v>8.047656118398698E-2</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="2"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -638,11 +669,10 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="C24" s="7">
-        <v>1.6E-2</v>
+        <v>7.9398821779671266E-2</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -653,11 +683,10 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="C25" s="7">
-        <v>1.7000000000000001E-2</v>
+        <v>7.2637348519890232E-2</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="2"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -668,11 +697,10 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="C26" s="7">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0602178436645985E-2</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="2"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/csdata/O/SI/O5+.xlsx
+++ b/csdata/O/SI/O5+.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/O/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81C854-52C4-3848-B1BA-17EE5A6D2F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E12327-7023-3245-9B0A-0C5A9CB74A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1380" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="15120" windowHeight="8740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
